--- a/BackTest/2019-11-21 BackTest CON.xlsx
+++ b/BackTest/2019-11-21 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-518049.6033</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-518049.6033</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>3.38</v>
@@ -521,7 +521,7 @@
         <v>-518049.6033</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>3.38</v>
@@ -562,7 +562,7 @@
         <v>-518049.6033</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>3.38</v>
@@ -603,7 +603,7 @@
         <v>-280616.0803</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3.38</v>
@@ -644,7 +644,7 @@
         <v>-280616.0803</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>3.39</v>
@@ -685,7 +685,7 @@
         <v>-280616.0803</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>3.39</v>
@@ -726,7 +726,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>3.39</v>
@@ -767,7 +767,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>3.38</v>
@@ -808,7 +808,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>3.38</v>
@@ -849,7 +849,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>3.38</v>
@@ -890,7 +890,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>3.38</v>
@@ -931,7 +931,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>3.38</v>
@@ -972,7 +972,7 @@
         <v>-803911.4708</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>3.38</v>
@@ -1013,7 +1013,7 @@
         <v>-803761.4708</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>3.38</v>
@@ -1054,7 +1054,7 @@
         <v>-1175724.7995</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>3.39</v>
@@ -1095,7 +1095,7 @@
         <v>-1175724.7995</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>3.38</v>
@@ -1136,7 +1136,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>3.38</v>
@@ -1177,7 +1177,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>3.39</v>
@@ -1218,7 +1218,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>3.39</v>
@@ -1259,7 +1259,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>3.39</v>
@@ -1300,7 +1300,7 @@
         <v>-888519.2779</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>3.39</v>
@@ -1341,7 +1341,7 @@
         <v>-888371.2779</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>3.39</v>
@@ -1382,7 +1382,7 @@
         <v>-1274288.6098</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>3.4</v>
@@ -1423,7 +1423,7 @@
         <v>-1274140.6098</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>3.39</v>
@@ -1464,7 +1464,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>3.4</v>
@@ -1505,7 +1505,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>3.39</v>
@@ -1546,7 +1546,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>3.39</v>
@@ -1587,7 +1587,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>3.39</v>
@@ -1628,7 +1628,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>3.39</v>
@@ -1669,7 +1669,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>3.39</v>
@@ -1710,7 +1710,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>3.39</v>
@@ -1751,7 +1751,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>3.39</v>
@@ -1792,7 +1792,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>3.39</v>
@@ -1833,7 +1833,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>3.39</v>
@@ -1874,7 +1874,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>3.39</v>
@@ -1915,7 +1915,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>3.39</v>
@@ -1956,7 +1956,7 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>3.39</v>
@@ -1997,7 +1997,7 @@
         <v>-1885119.4564</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>3.39</v>
@@ -2038,7 +2038,7 @@
         <v>-1885119.4564</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>3.4</v>
@@ -2079,7 +2079,7 @@
         <v>-2304018.2511</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>3.4</v>
@@ -2120,7 +2120,7 @@
         <v>-2303870.2511</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>3.39</v>
@@ -2161,7 +2161,7 @@
         <v>-2936373.2628</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>3.4</v>
@@ -2202,7 +2202,7 @@
         <v>-2936225.2628</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>3.39</v>
@@ -2243,7 +2243,7 @@
         <v>-2936225.2628</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3.4</v>
@@ -2284,7 +2284,7 @@
         <v>-2936225.2628</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.4</v>
@@ -2325,7 +2325,7 @@
         <v>-3053541.2482</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3.4</v>
@@ -2366,7 +2366,7 @@
         <v>-3053361.2482</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3.39</v>
@@ -2407,7 +2407,7 @@
         <v>-3078648.5005</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>3.4</v>
@@ -2448,7 +2448,7 @@
         <v>-3078444.5047</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.39</v>
@@ -2489,7 +2489,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>3.4</v>
@@ -2530,7 +2530,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>3.39</v>
@@ -2571,11 +2571,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>3.38</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>3.39</v>
@@ -2653,11 +2651,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
         <v>3.38</v>
       </c>
@@ -2694,7 +2690,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>3.39</v>
@@ -2735,11 +2731,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>3.38</v>
       </c>
@@ -2776,7 +2770,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>3.39</v>
@@ -2817,7 +2811,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>3.39</v>
@@ -2858,11 +2852,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>3.38</v>
       </c>
@@ -2899,7 +2891,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>3.39</v>
@@ -2940,7 +2932,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>3.39</v>
@@ -2981,7 +2973,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>3.39</v>
@@ -3022,7 +3014,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>3.39</v>
@@ -3063,11 +3055,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>3.38</v>
       </c>
@@ -3104,11 +3094,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>3.38</v>
       </c>
@@ -3145,11 +3133,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>3.38</v>
       </c>
@@ -3186,11 +3172,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>3.38</v>
       </c>
@@ -3227,11 +3211,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>3.38</v>
       </c>
@@ -3268,7 +3250,7 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>3.39</v>
@@ -3309,11 +3291,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>3.38</v>
       </c>
@@ -3350,11 +3330,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>3.38</v>
       </c>
@@ -3391,11 +3369,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>3.38</v>
       </c>
@@ -3432,11 +3408,9 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>3.38</v>
       </c>
@@ -3473,11 +3447,9 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>3.38</v>
       </c>
@@ -3514,7 +3486,7 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>3.38</v>
@@ -3555,7 +3527,7 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.38</v>
@@ -3596,7 +3568,7 @@
         <v>-3323193.1241</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>3.38</v>
@@ -3637,7 +3609,7 @@
         <v>-3323193.1241</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>3.39</v>
@@ -3678,7 +3650,7 @@
         <v>-3473892.3521</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>3.39</v>
@@ -3719,7 +3691,7 @@
         <v>-3473892.3521</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>3.38</v>
@@ -3760,7 +3732,7 @@
         <v>-3473892.3521</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>3.38</v>
@@ -3801,7 +3773,7 @@
         <v>-3250608.8452</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>3.38</v>
@@ -3842,7 +3814,7 @@
         <v>-3250608.8452</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>3.39</v>
@@ -3883,7 +3855,7 @@
         <v>-3250608.8452</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>3.39</v>
@@ -3924,7 +3896,7 @@
         <v>-2968684.8413</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>3.39</v>
@@ -3965,7 +3937,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>3.4</v>
@@ -4006,7 +3978,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>3.39</v>
@@ -4047,7 +4019,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>3.39</v>
@@ -4088,7 +4060,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>3.39</v>
@@ -4129,7 +4101,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>3.39</v>
@@ -4170,7 +4142,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.39</v>
@@ -4211,7 +4183,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3.39</v>
@@ -4252,7 +4224,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3.39</v>
@@ -4293,11 +4265,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>3.38</v>
       </c>
@@ -4334,11 +4304,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>3.38</v>
       </c>
@@ -4375,7 +4343,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>3.39</v>
@@ -4416,11 +4384,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>3.38</v>
       </c>
@@ -4457,7 +4423,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3.39</v>
@@ -4498,7 +4464,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3.39</v>
@@ -4539,7 +4505,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3.39</v>
@@ -4580,7 +4546,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3.39</v>
@@ -4621,7 +4587,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3.39</v>
@@ -4662,7 +4628,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>3.39</v>
@@ -4703,7 +4669,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>3.39</v>
@@ -4744,7 +4710,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>3.39</v>
@@ -4785,7 +4751,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>3.39</v>
@@ -4826,7 +4792,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.39</v>
@@ -4867,7 +4833,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.39</v>
@@ -4908,7 +4874,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>3.39</v>
@@ -4949,7 +4915,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.39</v>
@@ -4990,7 +4956,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>3.39</v>
@@ -5031,7 +4997,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>3.39</v>
@@ -5072,7 +5038,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>3.39</v>
@@ -5113,7 +5079,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>3.39</v>
@@ -5154,7 +5120,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>3.39</v>
@@ -5195,7 +5161,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3.39</v>
@@ -5236,7 +5202,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>3.39</v>
@@ -5277,7 +5243,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>3.39</v>
@@ -5318,7 +5284,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.39</v>
@@ -5359,7 +5325,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>3.39</v>
@@ -5400,7 +5366,7 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3.39</v>
@@ -5441,7 +5407,7 @@
         <v>-2909947.674</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.39</v>
@@ -5482,7 +5448,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3.4</v>
@@ -5523,7 +5489,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.39</v>
@@ -5564,7 +5530,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3.39</v>
@@ -5605,7 +5571,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3.39</v>
@@ -5646,7 +5612,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>3.39</v>
@@ -5687,7 +5653,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3.39</v>
@@ -5728,7 +5694,7 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3.39</v>
@@ -5769,7 +5735,7 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3.39</v>
@@ -5810,7 +5776,7 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3.4</v>
@@ -5851,11 +5817,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>3.38</v>
       </c>
@@ -5892,11 +5856,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>3.38</v>
       </c>
@@ -5933,11 +5895,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>3.38</v>
       </c>
@@ -5974,11 +5934,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>3.38</v>
       </c>
@@ -6015,11 +5973,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>3.38</v>
       </c>
@@ -6056,11 +6012,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>3.38</v>
       </c>
@@ -6097,11 +6051,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>3.38</v>
       </c>
@@ -6138,11 +6090,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>3.38</v>
       </c>
@@ -6179,11 +6129,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>3.38</v>
       </c>
@@ -6220,11 +6168,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>3.38</v>
       </c>
@@ -6261,7 +6207,7 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.39</v>
@@ -6302,11 +6248,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>3.38</v>
       </c>
@@ -6343,11 +6287,9 @@
         <v>-2497824.5997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>3.38</v>
       </c>
@@ -6384,11 +6326,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>3.38</v>
       </c>
@@ -6425,11 +6365,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>3.38</v>
       </c>
@@ -6466,11 +6404,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>3.38</v>
       </c>
@@ -6507,11 +6443,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>3.38</v>
       </c>
@@ -6548,11 +6482,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>3.38</v>
       </c>
@@ -6589,7 +6521,7 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.39</v>
@@ -6630,7 +6562,7 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.39</v>
@@ -6671,7 +6603,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.39</v>
@@ -6712,7 +6644,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.38</v>
@@ -6753,7 +6685,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.38</v>
@@ -6794,7 +6726,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>3.38</v>
@@ -6835,7 +6767,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>3.38</v>
@@ -6876,7 +6808,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>3.38</v>
@@ -6917,7 +6849,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.38</v>
@@ -6958,7 +6890,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.38</v>
@@ -6999,7 +6931,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>3.38</v>
@@ -7040,7 +6972,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.38</v>
@@ -7081,7 +7013,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>3.38</v>
@@ -7122,7 +7054,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.38</v>
@@ -7163,7 +7095,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.38</v>
@@ -7204,7 +7136,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.38</v>
@@ -7245,7 +7177,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.38</v>
@@ -7286,7 +7218,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.38</v>
@@ -7327,7 +7259,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.38</v>
@@ -7368,7 +7300,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>3.38</v>
@@ -7409,7 +7341,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>3.38</v>
@@ -7450,7 +7382,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>3.38</v>
@@ -7491,7 +7423,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>3.38</v>
@@ -7532,7 +7464,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>3.38</v>
@@ -7573,7 +7505,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>3.38</v>
@@ -7614,7 +7546,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>3.38</v>
@@ -7655,7 +7587,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>3.38</v>
@@ -7696,7 +7628,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>3.38</v>
@@ -7737,7 +7669,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>3.38</v>
@@ -7778,7 +7710,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>3.38</v>
@@ -7819,7 +7751,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>3.38</v>
@@ -7860,7 +7792,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>3.38</v>
@@ -7901,7 +7833,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>3.38</v>
@@ -7942,7 +7874,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>3.38</v>
@@ -7983,7 +7915,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>3.38</v>
@@ -8024,7 +7956,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>3.38</v>
@@ -8065,7 +7997,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>3.38</v>
@@ -8106,7 +8038,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>3.38</v>
@@ -8147,7 +8079,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>3.38</v>
@@ -8188,7 +8120,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>3.38</v>
@@ -8229,7 +8161,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>3.38</v>
@@ -8270,7 +8202,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>3.38</v>
@@ -8311,7 +8243,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>3.38</v>
@@ -8352,7 +8284,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>3.38</v>
@@ -8393,7 +8325,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>3.38</v>
@@ -8434,7 +8366,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>3.38</v>
@@ -8475,7 +8407,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>3.38</v>
@@ -8516,7 +8448,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>3.38</v>
@@ -8557,7 +8489,7 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>3.38</v>
@@ -8598,7 +8530,7 @@
         <v>-3187159.368</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>3.38</v>
@@ -8639,7 +8571,7 @@
         <v>-3187159.368</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>3.39</v>
@@ -8680,7 +8612,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>3.39</v>
@@ -8721,7 +8653,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>3.38</v>
@@ -8762,7 +8694,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>3.38</v>
@@ -8803,7 +8735,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>3.38</v>
@@ -8844,7 +8776,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>3.38</v>
@@ -8885,7 +8817,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>3.38</v>
@@ -8926,7 +8858,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>3.38</v>
@@ -8967,7 +8899,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>3.38</v>
@@ -9008,7 +8940,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>3.38</v>
@@ -9049,7 +8981,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>3.38</v>
@@ -9090,7 +9022,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>3.38</v>
@@ -9131,7 +9063,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>3.38</v>
@@ -9172,7 +9104,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>3.38</v>
@@ -9213,7 +9145,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>3.38</v>
@@ -9254,7 +9186,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>3.38</v>
@@ -9295,7 +9227,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>3.38</v>
@@ -9336,7 +9268,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>3.38</v>
@@ -9377,7 +9309,7 @@
         <v>-3510844.0936</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>3.38</v>
@@ -9418,7 +9350,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>3.38</v>
@@ -9459,7 +9391,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>3.37</v>
@@ -9500,7 +9432,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>3.37</v>
@@ -9541,7 +9473,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>3.37</v>
@@ -9582,7 +9514,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>3.37</v>
@@ -9623,7 +9555,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>3.37</v>
@@ -9664,7 +9596,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>3.37</v>
@@ -9705,7 +9637,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>3.37</v>
@@ -9746,7 +9678,7 @@
         <v>-3626919.0579</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>3.37</v>
@@ -9787,7 +9719,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>3.37</v>
@@ -9828,7 +9760,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>3.38</v>
@@ -9869,7 +9801,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>3.38</v>
@@ -9910,7 +9842,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>3.38</v>
@@ -9951,7 +9883,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>3.38</v>
@@ -9992,7 +9924,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>3.38</v>
@@ -10033,7 +9965,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>3.38</v>
@@ -10074,7 +10006,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>3.38</v>
@@ -10115,7 +10047,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>3.38</v>
@@ -10156,7 +10088,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>3.38</v>
@@ -10197,7 +10129,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>3.38</v>
@@ -10238,7 +10170,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>3.38</v>
@@ -10279,7 +10211,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>3.38</v>
@@ -10320,7 +10252,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>3.38</v>
@@ -10361,7 +10293,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>3.38</v>
@@ -10402,7 +10334,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>3.38</v>
@@ -10443,7 +10375,7 @@
         <v>-3336019.6839</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>3.38</v>
@@ -10484,7 +10416,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>3.38</v>
@@ -10525,7 +10457,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>3.39</v>
@@ -10566,7 +10498,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>3.39</v>
@@ -10607,7 +10539,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>3.39</v>
@@ -10648,7 +10580,7 @@
         <v>-2991346.1682</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>3.39</v>
@@ -10689,7 +10621,7 @@
         <v>-2955496.2265</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>3.39</v>
@@ -10730,7 +10662,7 @@
         <v>-3156193.295200001</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>3.4</v>
@@ -10771,7 +10703,7 @@
         <v>-3156193.295200001</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>3.39</v>
@@ -10812,7 +10744,7 @@
         <v>-3156193.295200001</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>3.39</v>
@@ -10853,7 +10785,7 @@
         <v>-4524449.558800001</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>3.39</v>
@@ -10894,7 +10826,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>3.37</v>
@@ -10935,7 +10867,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>3.38</v>
@@ -10976,7 +10908,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>3.38</v>
@@ -11017,7 +10949,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>3.38</v>
@@ -11058,7 +10990,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>3.38</v>
@@ -11099,7 +11031,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>3.38</v>
@@ -11140,7 +11072,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>3.38</v>
@@ -11181,7 +11113,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>3.38</v>
@@ -11222,7 +11154,7 @@
         <v>-4499415.040600001</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>3.38</v>
@@ -11263,7 +11195,7 @@
         <v>-4498725.278300001</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>3.38</v>
@@ -11304,7 +11236,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>3.39</v>
@@ -11345,7 +11277,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>3.38</v>
@@ -11386,7 +11318,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>3.38</v>
@@ -11427,7 +11359,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>3.38</v>
@@ -11468,7 +11400,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>3.38</v>
@@ -11509,7 +11441,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>3.38</v>
@@ -11550,7 +11482,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>3.38</v>
@@ -11591,7 +11523,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>3.38</v>
@@ -11632,7 +11564,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>3.38</v>
@@ -11673,7 +11605,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>3.38</v>
@@ -11714,7 +11646,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>3.38</v>
@@ -11755,7 +11687,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>3.38</v>
@@ -11796,7 +11728,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>3.38</v>
@@ -11837,7 +11769,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>3.38</v>
@@ -11878,7 +11810,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>3.38</v>
@@ -11919,7 +11851,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>3.38</v>
@@ -11960,7 +11892,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>3.38</v>
@@ -12001,7 +11933,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>3.38</v>
@@ -12042,7 +11974,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>3.38</v>
@@ -12083,7 +12015,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>3.38</v>
@@ -12124,7 +12056,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>3.38</v>
@@ -12165,7 +12097,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>3.38</v>
@@ -12206,7 +12138,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>3.38</v>
@@ -12247,7 +12179,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>3.38</v>
@@ -12288,7 +12220,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>3.38</v>
@@ -12329,7 +12261,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>3.38</v>
@@ -12370,7 +12302,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>3.38</v>
@@ -12411,7 +12343,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>3.38</v>
@@ -12452,7 +12384,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>3.38</v>
@@ -12493,7 +12425,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>3.38</v>
@@ -12534,7 +12466,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>3.38</v>
@@ -12575,7 +12507,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>3.38</v>
@@ -12616,7 +12548,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>3.38</v>
@@ -12657,7 +12589,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>3.38</v>
@@ -12698,7 +12630,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>3.38</v>
@@ -12739,7 +12671,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>3.38</v>
@@ -12780,7 +12712,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>3.38</v>
@@ -12821,7 +12753,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>3.38</v>
@@ -12862,7 +12794,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>3.38</v>
@@ -12903,7 +12835,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>3.38</v>
@@ -12944,7 +12876,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>3.38</v>
@@ -12985,7 +12917,7 @@
         <v>-4611619.813100001</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>3.38</v>
@@ -13026,7 +12958,7 @@
         <v>-4435452.274500001</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>3.38</v>
@@ -13067,7 +12999,7 @@
         <v>-4275452.274500001</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>3.39</v>
@@ -13108,7 +13040,7 @@
         <v>-3936115.172900001</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>3.41</v>
@@ -13149,7 +13081,7 @@
         <v>-3936115.172900001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>3.42</v>
@@ -13190,7 +13122,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>3.42</v>
@@ -13231,7 +13163,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>3.41</v>
@@ -13272,7 +13204,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>3.41</v>
@@ -13313,7 +13245,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>3.41</v>
@@ -13354,7 +13286,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>3.41</v>
@@ -13395,7 +13327,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>3.41</v>
@@ -13436,7 +13368,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>3.41</v>
@@ -13477,7 +13409,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>3.41</v>
@@ -13518,7 +13450,7 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>3.41</v>
@@ -13559,11 +13491,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
         <v>3.38</v>
       </c>
@@ -13600,11 +13530,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
         <v>3.38</v>
       </c>
@@ -13641,11 +13569,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
         <v>3.38</v>
       </c>
@@ -13682,11 +13608,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>3.38</v>
       </c>
@@ -13723,11 +13647,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
         <v>3.38</v>
       </c>
@@ -13764,11 +13686,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>3.38</v>
       </c>
@@ -13805,11 +13725,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>3.38</v>
       </c>
@@ -13846,11 +13764,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>3.38</v>
       </c>
@@ -13887,11 +13803,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
         <v>3.38</v>
       </c>
@@ -13928,11 +13842,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>3.38</v>
       </c>
@@ -13969,11 +13881,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>3.38</v>
       </c>
@@ -14010,11 +13920,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
         <v>3.38</v>
       </c>
@@ -14051,11 +13959,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
         <v>3.38</v>
       </c>
@@ -14092,11 +13998,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
         <v>3.38</v>
       </c>
@@ -14133,11 +14037,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>3.38</v>
       </c>
@@ -14174,11 +14076,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
         <v>3.38</v>
       </c>
@@ -14215,11 +14115,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
         <v>3.38</v>
       </c>
@@ -14256,11 +14154,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>3.38</v>
       </c>
@@ -14297,11 +14193,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>3.38</v>
       </c>
@@ -14338,11 +14232,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>3.38</v>
       </c>
@@ -14379,11 +14271,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
         <v>3.38</v>
       </c>
@@ -14420,11 +14310,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
         <v>3.38</v>
       </c>
@@ -14461,11 +14349,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
         <v>3.38</v>
       </c>
@@ -14502,11 +14388,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
         <v>3.38</v>
       </c>
@@ -14543,11 +14427,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
         <v>3.38</v>
       </c>
@@ -14584,11 +14466,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
         <v>3.38</v>
       </c>
@@ -14625,11 +14505,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
         <v>3.38</v>
       </c>
@@ -14666,11 +14544,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
         <v>3.38</v>
       </c>
@@ -14707,11 +14583,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
         <v>3.38</v>
       </c>
@@ -14748,11 +14622,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
         <v>3.38</v>
       </c>
@@ -14789,11 +14661,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
-      </c>
-      <c r="I352" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>3.38</v>
       </c>
@@ -14830,11 +14700,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
-      </c>
-      <c r="I353" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
         <v>3.38</v>
       </c>
@@ -14871,11 +14739,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
         <v>3.38</v>
       </c>
@@ -14912,11 +14778,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>3.38</v>
       </c>
@@ -14953,11 +14817,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
         <v>3.38</v>
       </c>
@@ -14994,11 +14856,9 @@
         <v>-4703299.5151</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
-      </c>
-      <c r="I357" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
         <v>3.38</v>
       </c>
@@ -15035,11 +14895,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
         <v>3.38</v>
       </c>
@@ -15076,11 +14934,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
         <v>3.38</v>
       </c>
@@ -15117,11 +14973,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>3.38</v>
       </c>
@@ -15158,11 +15012,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>3.38</v>
       </c>
@@ -15199,11 +15051,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>3.38</v>
       </c>
@@ -15240,11 +15090,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>3.38</v>
       </c>
@@ -15281,11 +15129,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>3.38</v>
       </c>
@@ -15322,11 +15168,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>3.38</v>
       </c>
@@ -15363,11 +15207,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>3.38</v>
       </c>
@@ -15404,11 +15246,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
-      </c>
-      <c r="I367" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>3.38</v>
       </c>
@@ -15445,11 +15285,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
-      </c>
-      <c r="I368" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>3.38</v>
       </c>
@@ -15486,11 +15324,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>3.38</v>
       </c>
@@ -15527,11 +15363,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
         <v>3.38</v>
       </c>
@@ -15568,11 +15402,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>3.38</v>
       </c>
@@ -15609,11 +15441,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
-      </c>
-      <c r="I372" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>3.38</v>
       </c>
@@ -15650,11 +15480,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>3.38</v>
       </c>
@@ -15691,11 +15519,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>3.38</v>
       </c>
@@ -15732,7 +15558,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I375" t="n">
         <v>3.39</v>
@@ -15773,7 +15599,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I376" t="n">
         <v>3.39</v>
@@ -15814,7 +15640,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>3.39</v>
@@ -15855,7 +15681,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>3.39</v>
@@ -15896,7 +15722,7 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>3.39</v>
@@ -15937,7 +15763,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>3.39</v>
@@ -15978,7 +15804,7 @@
         <v>-4998593.386</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>3.4</v>
@@ -16019,11 +15845,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
-      </c>
-      <c r="I382" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>3.38</v>
       </c>
@@ -16060,11 +15884,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
-      </c>
-      <c r="I383" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
         <v>3.38</v>
       </c>
@@ -16101,11 +15923,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
-      </c>
-      <c r="I384" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>3.38</v>
       </c>
@@ -16142,11 +15962,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
-      </c>
-      <c r="I385" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>3.38</v>
       </c>
@@ -16183,11 +16001,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
-      </c>
-      <c r="I386" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>3.38</v>
       </c>
@@ -16224,11 +16040,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
-      </c>
-      <c r="I387" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>3.38</v>
       </c>
@@ -16265,11 +16079,9 @@
         <v>-4776045.9292</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
-      </c>
-      <c r="I388" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
         <v>3.38</v>
       </c>
@@ -16306,11 +16118,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
-      </c>
-      <c r="I389" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>3.38</v>
       </c>
@@ -16347,11 +16157,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
-      </c>
-      <c r="I390" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
         <v>3.38</v>
       </c>
@@ -16388,11 +16196,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
-      </c>
-      <c r="I391" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
         <v>3.38</v>
       </c>
@@ -16429,11 +16235,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>3.38</v>
       </c>
@@ -16470,11 +16274,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>3.38</v>
       </c>
@@ -16511,11 +16313,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>3.38</v>
       </c>
@@ -16552,11 +16352,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
-      </c>
-      <c r="I395" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>3.38</v>
       </c>
@@ -16593,11 +16391,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
-      </c>
-      <c r="I396" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
         <v>3.38</v>
       </c>
@@ -16634,11 +16430,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
         <v>3.38</v>
       </c>
@@ -16675,11 +16469,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
         <v>3.38</v>
       </c>
@@ -16716,11 +16508,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
         <v>3.38</v>
       </c>
@@ -16757,11 +16547,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>3.38</v>
       </c>
@@ -16798,11 +16586,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>3.38</v>
       </c>
@@ -16839,11 +16625,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>3.38</v>
       </c>
@@ -16880,11 +16664,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
         <v>3.38</v>
       </c>
@@ -16921,11 +16703,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
         <v>3.38</v>
       </c>
@@ -16962,11 +16742,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
         <v>3.38</v>
       </c>
@@ -17003,11 +16781,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
         <v>3.38</v>
       </c>
@@ -17044,11 +16820,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
         <v>3.38</v>
       </c>
@@ -17085,11 +16859,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
-      </c>
-      <c r="I408" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
         <v>3.38</v>
       </c>
@@ -17126,11 +16898,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
         <v>3.38</v>
       </c>
@@ -17167,11 +16937,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
         <v>3.38</v>
       </c>
@@ -17208,11 +16976,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
         <v>3.38</v>
       </c>
@@ -17249,11 +17015,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
         <v>3.38</v>
       </c>
@@ -17290,11 +17054,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
         <v>3.38</v>
       </c>
@@ -17331,11 +17093,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
         <v>3.38</v>
       </c>
@@ -17372,11 +17132,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
         <v>3.38</v>
       </c>
@@ -17413,7 +17171,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I416" t="n">
         <v>3.39</v>
@@ -17454,7 +17212,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417" t="n">
         <v>3.39</v>
@@ -17495,11 +17253,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
         <v>3.38</v>
       </c>
@@ -17536,7 +17292,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>3.39</v>
@@ -17577,7 +17333,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I420" t="n">
         <v>3.39</v>
@@ -17618,7 +17374,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>3.39</v>
@@ -17659,7 +17415,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>3.39</v>
@@ -17700,7 +17456,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>3.39</v>
@@ -17741,7 +17497,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>3.39</v>
@@ -17782,7 +17538,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>3.39</v>
@@ -17823,7 +17579,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>3.39</v>
@@ -17864,7 +17620,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>3.39</v>
@@ -17905,7 +17661,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>3.39</v>
@@ -17946,7 +17702,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>3.39</v>
@@ -17987,7 +17743,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>3.39</v>
@@ -18028,7 +17784,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>3.39</v>
@@ -18069,7 +17825,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>3.39</v>
@@ -18110,7 +17866,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>3.39</v>
@@ -18151,7 +17907,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>3.39</v>
@@ -18192,7 +17948,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3.39</v>
@@ -18233,7 +17989,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3.39</v>
@@ -18274,7 +18030,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3.39</v>
@@ -18315,7 +18071,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>3.39</v>
@@ -18356,7 +18112,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>3.39</v>
@@ -18397,7 +18153,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>3.39</v>
@@ -18438,7 +18194,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>3.39</v>
@@ -18479,7 +18235,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>3.39</v>
@@ -18520,7 +18276,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>3.39</v>
@@ -18561,7 +18317,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>3.39</v>
@@ -18602,7 +18358,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>3.39</v>
@@ -18643,7 +18399,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>3.39</v>
@@ -18684,7 +18440,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>3.39</v>
@@ -18725,7 +18481,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>3.39</v>
@@ -18766,7 +18522,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>3.39</v>
@@ -18807,7 +18563,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I450" t="n">
         <v>3.39</v>
@@ -18848,7 +18604,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I451" t="n">
         <v>3.39</v>
@@ -18889,7 +18645,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I452" t="n">
         <v>3.39</v>
@@ -18930,7 +18686,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>3.39</v>
@@ -18971,7 +18727,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>3.39</v>
@@ -19012,7 +18768,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>3.39</v>
@@ -19053,7 +18809,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>3.39</v>
@@ -19094,7 +18850,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457" t="n">
         <v>3.39</v>
@@ -19135,7 +18891,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I458" t="n">
         <v>3.39</v>
@@ -19176,7 +18932,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I459" t="n">
         <v>3.39</v>
@@ -19217,7 +18973,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>3.39</v>
@@ -19258,7 +19014,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>3.39</v>
@@ -19299,7 +19055,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I462" t="n">
         <v>3.39</v>
@@ -19340,7 +19096,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I463" t="n">
         <v>3.39</v>
@@ -19381,7 +19137,7 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I464" t="n">
         <v>3.39</v>
@@ -19422,7 +19178,7 @@
         <v>-5254390.327400001</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>3.39</v>
@@ -19463,7 +19219,7 @@
         <v>-5177506.132667743</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>3.4</v>
@@ -19504,7 +19260,7 @@
         <v>-4948219.466392524</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I467" t="n">
         <v>3.42</v>
@@ -19545,11 +19301,9 @@
         <v>-5006512.682892524</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
         <v>3.38</v>
       </c>
@@ -19586,11 +19340,9 @@
         <v>-5006512.682892524</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
         <v>3.38</v>
       </c>
@@ -19627,11 +19379,9 @@
         <v>-4858356.709892523</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
         <v>3.38</v>
       </c>
@@ -19668,11 +19418,9 @@
         <v>-4858356.709892523</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
         <v>3.38</v>
       </c>
@@ -19709,11 +19457,9 @@
         <v>-4858356.709892523</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
         <v>3.38</v>
       </c>
@@ -19750,11 +19496,9 @@
         <v>-5248791.703892523</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
         <v>3.38</v>
       </c>
@@ -19791,11 +19535,9 @@
         <v>-5248791.703892523</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
         <v>3.38</v>
       </c>
@@ -19832,11 +19574,9 @@
         <v>-4972218.653792524</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
         <v>3.38</v>
       </c>
@@ -19873,11 +19613,9 @@
         <v>-4972218.653792524</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
         <v>3.38</v>
       </c>
@@ -19914,11 +19652,9 @@
         <v>-4293614.559392524</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
-      </c>
-      <c r="I477" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
         <v>3.38</v>
       </c>
@@ -19955,11 +19691,9 @@
         <v>-4489932.453592524</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
         <v>3.38</v>
       </c>
@@ -19996,11 +19730,9 @@
         <v>-4122112.374192524</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>3.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
         <v>3.38</v>
       </c>
@@ -20037,11 +19769,9 @@
         <v>-3655052.550892524</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>3.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
         <v>3.38</v>
       </c>
@@ -20624,11 +20354,9 @@
         <v>-5190409.538292523</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
         <v>3.38</v>
       </c>
@@ -20665,11 +20393,9 @@
         <v>-5190409.538292523</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="n">
         <v>3.38</v>
       </c>
@@ -20706,11 +20432,9 @@
         <v>-5190409.538292523</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="n">
         <v>3.38</v>
       </c>
@@ -26051,7 +25775,7 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
@@ -26059,13 +25783,15 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
+        <v>1.051213017751479</v>
+      </c>
+      <c r="M634" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -26090,17 +25816,11 @@
         <v>72352790.24010748</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -26132,14 +25852,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -26168,17 +25882,11 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -26210,14 +25918,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -26249,14 +25951,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -26288,14 +25984,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -26327,14 +26017,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -26366,14 +26050,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -26405,14 +26083,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -26444,14 +26116,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -26483,14 +26149,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -26522,14 +26182,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -26561,14 +26215,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -26600,14 +26248,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -26639,14 +26281,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -26678,14 +26314,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -26717,14 +26347,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -26756,14 +26380,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -26795,14 +26413,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -26834,14 +26446,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -26873,14 +26479,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -26912,14 +26512,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -26951,14 +26545,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26990,14 +26578,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -27029,14 +26611,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -27068,14 +26644,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -27107,14 +26677,8 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -27146,14 +26710,8 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -27185,14 +26743,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -27224,14 +26776,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -27263,14 +26809,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -27302,14 +26842,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -27341,14 +26875,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -27377,17 +26905,11 @@
         <v>72248283.59300748</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -27416,17 +26938,11 @@
         <v>72616666.11020747</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -27458,14 +26974,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -27497,14 +27007,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -27536,14 +27040,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -27575,14 +27073,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -27614,14 +27106,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -27653,14 +27139,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -27692,14 +27172,8 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -27731,14 +27205,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -27770,14 +27238,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -27809,14 +27271,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -27848,14 +27304,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -27887,14 +27337,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -27926,14 +27370,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -27965,14 +27403,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -28004,14 +27436,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -28043,14 +27469,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -28082,14 +27502,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -28121,14 +27535,8 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -28160,14 +27568,8 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -28199,14 +27601,8 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -28235,17 +27631,11 @@
         <v>70484912.40120746</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -28277,14 +27667,8 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -28313,17 +27697,11 @@
         <v>69930626.06600747</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -28355,14 +27733,8 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -28391,17 +27763,11 @@
         <v>69670540.14190747</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -28433,14 +27799,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -28472,14 +27832,8 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -28511,14 +27865,8 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -28550,14 +27898,8 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -28589,14 +27931,8 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -28628,14 +27964,8 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -28667,14 +27997,8 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -28706,14 +28030,8 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -28745,14 +28063,8 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -28784,14 +28096,8 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -28823,14 +28129,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -28862,14 +28162,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -28901,14 +28195,8 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -28940,14 +28228,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -28979,14 +28261,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -29018,14 +28294,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -29057,14 +28327,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -29096,14 +28360,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -29135,14 +28393,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -29174,14 +28426,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -29213,14 +28459,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -29252,14 +28492,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -29291,14 +28525,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -29330,14 +28558,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -29369,14 +28591,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -29408,14 +28624,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -29447,14 +28657,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -29486,14 +28690,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -29525,14 +28723,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -29564,14 +28756,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -29603,14 +28789,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -29642,14 +28822,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -29681,14 +28855,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -29720,14 +28888,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -29759,14 +28921,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -29798,14 +28954,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -29837,14 +28987,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -29876,14 +29020,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -29915,14 +29053,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -29954,14 +29086,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -29993,14 +29119,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -30032,14 +29152,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -30071,14 +29185,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -30110,14 +29218,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -30149,14 +29251,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -30188,14 +29284,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -30227,14 +29317,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -30266,14 +29350,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -30302,23 +29380,15 @@
         <v>72726440.89360744</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
-        <v>1.066005917159764</v>
-      </c>
-      <c r="M743" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -30343,7 +29413,7 @@
         <v>72992354.10310744</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -30376,7 +29446,7 @@
         <v>72669418.82110743</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -30409,7 +29479,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -30442,7 +29512,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -30475,7 +29545,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -30508,7 +29578,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -30541,7 +29611,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -30574,7 +29644,7 @@
         <v>73275533.98360744</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -30607,7 +29677,7 @@
         <v>73811219.89340743</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -30640,7 +29710,7 @@
         <v>73496733.84650743</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -30673,7 +29743,7 @@
         <v>73912062.01280743</v>
       </c>
       <c r="H754" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -30706,7 +29776,7 @@
         <v>73990133.55680743</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -30739,7 +29809,7 @@
         <v>74380365.05740742</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -30772,7 +29842,7 @@
         <v>74380365.05740742</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -30805,7 +29875,7 @@
         <v>73884629.03800742</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -30838,7 +29908,7 @@
         <v>73884629.03800742</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -30871,7 +29941,7 @@
         <v>73529448.80530742</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -30904,7 +29974,7 @@
         <v>73576538.66720742</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -30937,7 +30007,7 @@
         <v>73158832.77650742</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -30970,7 +30040,7 @@
         <v>71612998.83410743</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -31003,7 +30073,7 @@
         <v>71243285.34990743</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -38626,7 +37696,7 @@
         <v>73975455.60760173</v>
       </c>
       <c r="H995" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -38659,7 +37729,7 @@
         <v>73310163.61240174</v>
       </c>
       <c r="H996" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -38692,7 +37762,7 @@
         <v>71504121.07670851</v>
       </c>
       <c r="H997" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -38725,7 +37795,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H998" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -38758,7 +37828,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H999" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -39154,7 +38224,7 @@
         <v>71083145.08977835</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -39187,7 +38257,7 @@
         <v>70886375.19587834</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -39220,7 +38290,7 @@
         <v>70144638.71617834</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -39253,7 +38323,7 @@
         <v>70144638.71617834</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -39286,7 +38356,7 @@
         <v>70576551.94157834</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -39319,7 +38389,7 @@
         <v>70615819.57587834</v>
       </c>
       <c r="H1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -39352,7 +38422,7 @@
         <v>71129943.10367833</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -39385,7 +38455,7 @@
         <v>71145124.50237833</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -39418,7 +38488,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -39451,7 +38521,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -39484,7 +38554,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1021" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -39517,7 +38587,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -39583,7 +38653,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1024" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -39616,7 +38686,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1025" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -39649,7 +38719,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1026" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -39682,7 +38752,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1027" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -39715,7 +38785,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1028" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -39847,7 +38917,7 @@
         <v>70821093.77717832</v>
       </c>
       <c r="H1032" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -40243,7 +39313,7 @@
         <v>69804981.52727833</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -40276,7 +39346,7 @@
         <v>69663130.41367833</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -40309,7 +39379,7 @@
         <v>69663130.41367833</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -40342,7 +39412,7 @@
         <v>69663130.41367833</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -40540,7 +39610,7 @@
         <v>70058014.95207833</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -40573,7 +39643,7 @@
         <v>70176006.92637832</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -40606,7 +39676,7 @@
         <v>70176006.92637832</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -42267,6 +41337,6 @@
       <c r="M1105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest CON.xlsx
+++ b/BackTest/2019-11-21 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -726,11 +726,9 @@
         <v>-803911.4708</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>3.38</v>
       </c>
@@ -1218,11 +1216,9 @@
         <v>-888519.2779</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>3.38</v>
       </c>
@@ -1341,11 +1337,9 @@
         <v>-888371.2779</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>3.38</v>
       </c>
@@ -1382,11 +1376,9 @@
         <v>-1274288.6098</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>3.38</v>
       </c>
@@ -1423,11 +1415,9 @@
         <v>-1274140.6098</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>3.38</v>
       </c>
@@ -1464,11 +1454,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>3.38</v>
       </c>
@@ -1505,11 +1493,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>3.38</v>
       </c>
@@ -1546,11 +1532,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>3.38</v>
       </c>
@@ -1587,11 +1571,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>3.38</v>
       </c>
@@ -1628,11 +1610,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>3.38</v>
       </c>
@@ -1669,11 +1649,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>3.38</v>
       </c>
@@ -1710,11 +1688,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>3.38</v>
       </c>
@@ -1751,11 +1727,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>3.38</v>
       </c>
@@ -1792,11 +1766,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>3.38</v>
       </c>
@@ -1833,11 +1805,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>3.38</v>
       </c>
@@ -1874,11 +1844,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>3.38</v>
       </c>
@@ -1915,11 +1883,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>3.38</v>
       </c>
@@ -1956,11 +1922,9 @@
         <v>-1885711.4564</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>3.38</v>
       </c>
@@ -1997,11 +1961,9 @@
         <v>-1885119.4564</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>3.38</v>
       </c>
@@ -2038,11 +2000,9 @@
         <v>-1885119.4564</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>3.38</v>
       </c>
@@ -2079,11 +2039,9 @@
         <v>-2304018.2511</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>3.38</v>
       </c>
@@ -2120,11 +2078,9 @@
         <v>-2303870.2511</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>3.38</v>
       </c>
@@ -2161,11 +2117,9 @@
         <v>-2936373.2628</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>3.38</v>
       </c>
@@ -2202,11 +2156,9 @@
         <v>-2936225.2628</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>3.38</v>
       </c>
@@ -2243,11 +2195,9 @@
         <v>-2936225.2628</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>3.38</v>
       </c>
@@ -2284,11 +2234,9 @@
         <v>-2936225.2628</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
         <v>3.38</v>
       </c>
@@ -2325,11 +2273,9 @@
         <v>-3053541.2482</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>3.38</v>
       </c>
@@ -2366,11 +2312,9 @@
         <v>-3053361.2482</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>3.38</v>
       </c>
@@ -2407,11 +2351,9 @@
         <v>-3078648.5005</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>3.38</v>
       </c>
@@ -2448,11 +2390,9 @@
         <v>-3078444.5047</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>3.38</v>
       </c>
@@ -2489,11 +2429,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>3.38</v>
       </c>
@@ -2530,11 +2468,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>3.38</v>
       </c>
@@ -2610,11 +2546,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
         <v>3.38</v>
       </c>
@@ -2690,11 +2624,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>3.38</v>
       </c>
@@ -2770,11 +2702,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>3.38</v>
       </c>
@@ -2811,11 +2741,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>3.38</v>
       </c>
@@ -2891,11 +2819,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>3.38</v>
       </c>
@@ -2932,11 +2858,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>3.38</v>
       </c>
@@ -2973,11 +2897,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>3.38</v>
       </c>
@@ -3014,11 +2936,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>3.38</v>
       </c>
@@ -3250,11 +3170,9 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>3.38</v>
       </c>
@@ -3447,9 +3365,11 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J76" t="n">
         <v>3.38</v>
       </c>
@@ -3896,11 +3816,9 @@
         <v>-2968684.8413</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>3.38</v>
       </c>
@@ -3937,11 +3855,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>3.38</v>
       </c>
@@ -3978,11 +3894,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>3.38</v>
       </c>
@@ -4019,11 +3933,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>3.38</v>
       </c>
@@ -4060,11 +3972,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>3.38</v>
       </c>
@@ -4101,11 +4011,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>3.38</v>
       </c>
@@ -4142,11 +4050,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>3.38</v>
       </c>
@@ -4183,11 +4089,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>3.38</v>
       </c>
@@ -4224,11 +4128,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>3.38</v>
       </c>
@@ -4423,11 +4325,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>3.38</v>
       </c>
@@ -4546,11 +4446,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>3.38</v>
       </c>
@@ -5243,11 +5141,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>3.38</v>
       </c>
@@ -5366,11 +5262,9 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>3.38</v>
       </c>
@@ -5448,11 +5342,9 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>3.38</v>
       </c>
@@ -5530,11 +5422,9 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>3.38</v>
       </c>
@@ -5776,11 +5666,9 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>3.38</v>
       </c>
@@ -6207,11 +6095,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>3.38</v>
       </c>
@@ -6248,9 +6134,11 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J145" t="n">
         <v>3.38</v>
       </c>
@@ -6287,9 +6175,11 @@
         <v>-2497824.5997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J146" t="n">
         <v>3.38</v>
       </c>
@@ -6521,11 +6411,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>3.38</v>
       </c>
@@ -6562,11 +6450,9 @@
         <v>-2616056.985499999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>3.38</v>
       </c>
@@ -6603,11 +6489,9 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>3.38</v>
       </c>
@@ -6644,11 +6528,9 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>3.38</v>
       </c>
@@ -6849,11 +6731,9 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>3.38</v>
       </c>
@@ -13081,11 +12961,9 @@
         <v>-3936115.172900001</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
         <v>3.38</v>
       </c>
@@ -13122,11 +13000,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>3.42</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
         <v>3.38</v>
       </c>
@@ -13163,11 +13039,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
         <v>3.38</v>
       </c>
@@ -13204,11 +13078,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
         <v>3.38</v>
       </c>
@@ -13245,11 +13117,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
         <v>3.38</v>
       </c>
@@ -13286,11 +13156,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
         <v>3.38</v>
       </c>
@@ -13327,11 +13195,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
         <v>3.38</v>
       </c>
@@ -13368,11 +13234,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
         <v>3.38</v>
       </c>
@@ -13409,11 +13273,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
         <v>3.38</v>
       </c>
@@ -13450,11 +13312,9 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>3.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
         <v>3.38</v>
       </c>
@@ -15012,9 +14872,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J361" t="n">
         <v>3.38</v>
       </c>
@@ -15051,9 +14913,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J362" t="n">
         <v>3.38</v>
       </c>
@@ -15090,9 +14954,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J363" t="n">
         <v>3.38</v>
       </c>
@@ -15129,9 +14995,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J364" t="n">
         <v>3.38</v>
       </c>
@@ -15168,9 +15036,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J365" t="n">
         <v>3.38</v>
       </c>
@@ -15207,9 +15077,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J366" t="n">
         <v>3.38</v>
       </c>
@@ -15246,9 +15118,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J367" t="n">
         <v>3.38</v>
       </c>
@@ -15285,9 +15159,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J368" t="n">
         <v>3.38</v>
       </c>
@@ -15324,9 +15200,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J369" t="n">
         <v>3.38</v>
       </c>
@@ -15363,9 +15241,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J370" t="n">
         <v>3.38</v>
       </c>
@@ -15402,9 +15282,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J371" t="n">
         <v>3.38</v>
       </c>
@@ -15441,9 +15323,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J372" t="n">
         <v>3.38</v>
       </c>
@@ -15480,9 +15364,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J373" t="n">
         <v>3.38</v>
       </c>
@@ -15519,9 +15405,11 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J374" t="n">
         <v>3.38</v>
       </c>
@@ -15845,9 +15733,11 @@
         <v>-4998593.386</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J382" t="n">
         <v>3.38</v>
       </c>
@@ -15884,9 +15774,11 @@
         <v>-4998593.386</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J383" t="n">
         <v>3.38</v>
       </c>
@@ -15923,9 +15815,11 @@
         <v>-4998593.386</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J384" t="n">
         <v>3.38</v>
       </c>
@@ -16040,9 +15934,11 @@
         <v>-4998593.386</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J387" t="n">
         <v>3.38</v>
       </c>
@@ -16820,9 +16716,11 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J407" t="n">
         <v>3.38</v>
       </c>
@@ -16898,9 +16796,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J409" t="n">
         <v>3.38</v>
       </c>
@@ -16937,9 +16837,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J410" t="n">
         <v>3.38</v>
       </c>
@@ -16976,9 +16878,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J411" t="n">
         <v>3.38</v>
       </c>
@@ -17015,9 +16919,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J412" t="n">
         <v>3.38</v>
       </c>
@@ -17054,9 +16960,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J413" t="n">
         <v>3.38</v>
       </c>
@@ -17093,9 +17001,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J414" t="n">
         <v>3.38</v>
       </c>
@@ -17132,9 +17042,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J415" t="n">
         <v>3.38</v>
       </c>
@@ -17253,9 +17165,11 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J418" t="n">
         <v>3.38</v>
       </c>
@@ -22655,7 +22569,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
@@ -22663,11 +22577,11 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L554" t="n">
-        <v>1</v>
+        <v>1.024585798816568</v>
       </c>
       <c r="M554" t="inlineStr"/>
     </row>
@@ -22694,17 +22608,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22733,17 +22641,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22772,17 +22674,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22811,17 +22707,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22850,17 +22740,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22889,17 +22773,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22928,17 +22806,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22967,17 +22839,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -23006,17 +22872,11 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -23048,14 +22908,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -23087,14 +22941,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -23126,14 +22974,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -23165,14 +23007,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -23204,14 +23040,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -23243,14 +23073,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -23282,14 +23106,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -23321,14 +23139,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -23360,14 +23172,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -23399,14 +23205,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23438,14 +23238,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23477,14 +23271,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23516,14 +23304,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23555,14 +23337,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23594,14 +23370,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23633,14 +23403,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23672,14 +23436,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23711,14 +23469,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23750,14 +23502,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23789,14 +23535,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23828,14 +23568,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23867,14 +23601,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23906,14 +23634,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23945,14 +23667,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23984,14 +23700,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -24023,14 +23733,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -24062,14 +23766,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -24101,14 +23799,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -24140,14 +23832,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -24179,14 +23865,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -24218,14 +23898,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -24257,14 +23931,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -24296,14 +23964,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -24335,14 +23997,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24374,14 +24030,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24413,14 +24063,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24452,14 +24096,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24491,14 +24129,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24530,14 +24162,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24569,14 +24195,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24608,14 +24228,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24647,14 +24261,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24686,14 +24294,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24725,14 +24327,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24764,14 +24360,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24803,14 +24393,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24839,17 +24423,11 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24878,17 +24456,11 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24920,14 +24492,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24959,14 +24525,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24998,14 +24558,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -25037,14 +24591,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -25073,17 +24621,11 @@
         <v>74075284.66400746</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -25115,14 +24657,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -25154,14 +24690,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -25193,14 +24723,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -25232,14 +24756,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -25268,17 +24786,11 @@
         <v>73341253.59260745</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -25307,17 +24819,11 @@
         <v>73375866.77050745</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -25346,17 +24852,11 @@
         <v>73132319.08500746</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -25385,17 +24885,11 @@
         <v>72512968.83830746</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -25424,17 +24918,11 @@
         <v>72737932.62470746</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -25463,17 +24951,11 @@
         <v>72750437.66450746</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -25502,17 +24984,11 @@
         <v>72653504.53110747</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25541,17 +25017,11 @@
         <v>72323188.65360747</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25580,17 +25050,11 @@
         <v>72600500.84650747</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25619,17 +25083,11 @@
         <v>72870968.91920747</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25658,17 +25116,11 @@
         <v>72533227.68350747</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25697,17 +25149,11 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25736,17 +25182,11 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25778,20 +25218,12 @@
         <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
-        <v>1.051213017751479</v>
-      </c>
-      <c r="M634" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -25849,7 +25281,7 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -25981,7 +25413,7 @@
         <v>72149001.75260746</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -26014,7 +25446,7 @@
         <v>72025100.29050747</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -26047,7 +25479,7 @@
         <v>72212228.55340746</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -26080,7 +25512,7 @@
         <v>72292923.10630746</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -26113,7 +25545,7 @@
         <v>72625377.32670747</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -26905,7 +26337,7 @@
         <v>72248283.59300748</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -26938,7 +26370,7 @@
         <v>72616666.11020747</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -27631,7 +27063,7 @@
         <v>70484912.40120746</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -27697,7 +27129,7 @@
         <v>69930626.06600747</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -27763,7 +27195,7 @@
         <v>69670540.14190747</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -29347,7 +28779,7 @@
         <v>72422711.96150744</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -29380,7 +28812,7 @@
         <v>72726440.89360744</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -29413,7 +28845,7 @@
         <v>72992354.10310744</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -29446,7 +28878,7 @@
         <v>72669418.82110743</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -29479,7 +28911,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -29512,7 +28944,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -29545,7 +28977,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -29578,7 +29010,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -29611,7 +29043,7 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -29644,7 +29076,7 @@
         <v>73275533.98360744</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -29677,7 +29109,7 @@
         <v>73811219.89340743</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -29710,7 +29142,7 @@
         <v>73496733.84650743</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -29743,7 +29175,7 @@
         <v>73912062.01280743</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -30007,7 +29439,7 @@
         <v>73158832.77650742</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -30040,7 +29472,7 @@
         <v>71612998.83410743</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -30073,7 +29505,7 @@
         <v>71243285.34990743</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -30106,7 +29538,7 @@
         <v>70479825.43240742</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -30139,7 +29571,7 @@
         <v>70916646.42900743</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -30304,7 +29736,7 @@
         <v>70490339.36193912</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -30337,7 +29769,7 @@
         <v>69867275.46073912</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -37234,7 +36666,7 @@
         <v>66364085.59836579</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -37267,7 +36699,7 @@
         <v>66107759.88661844</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -37300,7 +36732,7 @@
         <v>65914313.74551844</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -37333,7 +36765,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -37366,7 +36798,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -37399,7 +36831,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -37432,7 +36864,7 @@
         <v>66759496.90758651</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -37465,7 +36897,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -37498,7 +36930,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -37531,7 +36963,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -37564,7 +36996,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -37597,7 +37029,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -37630,7 +37062,7 @@
         <v>67667573.54362839</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -37663,7 +37095,7 @@
         <v>69476588.61813217</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -37696,7 +37128,7 @@
         <v>73975455.60760173</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -38224,7 +37656,7 @@
         <v>71083145.08977835</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -38257,7 +37689,7 @@
         <v>70886375.19587834</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -38290,7 +37722,7 @@
         <v>70144638.71617834</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -38323,7 +37755,7 @@
         <v>70144638.71617834</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -38356,7 +37788,7 @@
         <v>70576551.94157834</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -38389,7 +37821,7 @@
         <v>70615819.57587834</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -38422,7 +37854,7 @@
         <v>71129943.10367833</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -38455,7 +37887,7 @@
         <v>71145124.50237833</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -38488,7 +37920,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -38521,7 +37953,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -38554,7 +37986,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -38587,7 +38019,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -38653,7 +38085,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -38686,7 +38118,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -39313,7 +38745,7 @@
         <v>69804981.52727833</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -39346,7 +38778,7 @@
         <v>69663130.41367833</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -39379,7 +38811,7 @@
         <v>69663130.41367833</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -39412,7 +38844,7 @@
         <v>69663130.41367833</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -39610,7 +39042,7 @@
         <v>70058014.95207833</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -39643,7 +39075,7 @@
         <v>70176006.92637832</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -39676,7 +39108,7 @@
         <v>70176006.92637832</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -41337,6 +40769,6 @@
       <c r="M1105" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest CON.xlsx
+++ b/BackTest/2019-11-21 BackTest CON.xlsx
@@ -726,9 +726,11 @@
         <v>-803911.4708</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J9" t="n">
         <v>3.38</v>
       </c>
@@ -1216,9 +1218,11 @@
         <v>-888519.2779</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J21" t="n">
         <v>3.38</v>
       </c>
@@ -1337,9 +1341,11 @@
         <v>-888371.2779</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J24" t="n">
         <v>3.38</v>
       </c>
@@ -3014,9 +3020,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J67" t="n">
         <v>3.38</v>
       </c>
@@ -3053,9 +3061,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J68" t="n">
         <v>3.38</v>
       </c>
@@ -3092,9 +3102,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J69" t="n">
         <v>3.38</v>
       </c>
@@ -3131,9 +3143,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J70" t="n">
         <v>3.38</v>
       </c>
@@ -3170,9 +3184,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J71" t="n">
         <v>3.38</v>
       </c>
@@ -3209,9 +3225,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J72" t="n">
         <v>3.38</v>
       </c>
@@ -3248,9 +3266,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J73" t="n">
         <v>3.38</v>
       </c>
@@ -3287,9 +3307,11 @@
         <v>-3287254.3856</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J74" t="n">
         <v>3.38</v>
       </c>
@@ -3326,9 +3348,11 @@
         <v>-3337961.1067</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J75" t="n">
         <v>3.38</v>
       </c>
@@ -3816,9 +3840,11 @@
         <v>-2968684.8413</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J87" t="n">
         <v>3.38</v>
       </c>
@@ -3855,9 +3881,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J88" t="n">
         <v>3.38</v>
       </c>
@@ -3894,9 +3922,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J89" t="n">
         <v>3.38</v>
       </c>
@@ -3933,9 +3963,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J90" t="n">
         <v>3.38</v>
       </c>
@@ -3972,9 +4004,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J91" t="n">
         <v>3.38</v>
       </c>
@@ -4011,9 +4045,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J92" t="n">
         <v>3.38</v>
       </c>
@@ -4050,9 +4086,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J93" t="n">
         <v>3.38</v>
       </c>
@@ -4089,9 +4127,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J94" t="n">
         <v>3.38</v>
       </c>
@@ -4128,9 +4168,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J95" t="n">
         <v>3.38</v>
       </c>
@@ -4167,9 +4209,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J96" t="n">
         <v>3.38</v>
       </c>
@@ -4206,9 +4250,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J97" t="n">
         <v>3.38</v>
       </c>
@@ -4286,9 +4332,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J99" t="n">
         <v>3.38</v>
       </c>
@@ -4325,9 +4373,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J100" t="n">
         <v>3.38</v>
       </c>
@@ -4446,9 +4496,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J103" t="n">
         <v>3.38</v>
       </c>
@@ -5141,9 +5193,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J120" t="n">
         <v>3.38</v>
       </c>
@@ -5262,9 +5316,11 @@
         <v>-3132006.9601</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J123" t="n">
         <v>3.38</v>
       </c>
@@ -5342,9 +5398,11 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J125" t="n">
         <v>3.38</v>
       </c>
@@ -5422,9 +5480,11 @@
         <v>-3013542.3292</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.39</v>
+      </c>
       <c r="J127" t="n">
         <v>3.38</v>
       </c>
@@ -5666,9 +5726,11 @@
         <v>-2667171.6664</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J133" t="n">
         <v>3.38</v>
       </c>
@@ -6134,11 +6196,9 @@
         <v>-2777205.946299999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>3.38</v>
       </c>
@@ -6175,11 +6235,9 @@
         <v>-2497824.5997</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>3.38</v>
       </c>
@@ -6528,9 +6586,11 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J155" t="n">
         <v>3.38</v>
       </c>
@@ -6731,9 +6791,11 @@
         <v>-3187617.4328</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.38</v>
+      </c>
       <c r="J160" t="n">
         <v>3.38</v>
       </c>
@@ -12961,9 +13023,11 @@
         <v>-3936115.172900001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>3.42</v>
+      </c>
       <c r="J312" t="n">
         <v>3.38</v>
       </c>
@@ -13000,9 +13064,11 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>3.42</v>
+      </c>
       <c r="J313" t="n">
         <v>3.38</v>
       </c>
@@ -13039,9 +13105,11 @@
         <v>-4223444.000100001</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>3.41</v>
+      </c>
       <c r="J314" t="n">
         <v>3.38</v>
       </c>
@@ -14872,11 +14940,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>3.38</v>
       </c>
@@ -14913,11 +14979,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>3.38</v>
       </c>
@@ -14954,11 +15018,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>3.38</v>
       </c>
@@ -14995,11 +15057,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>3.38</v>
       </c>
@@ -15036,11 +15096,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>3.38</v>
       </c>
@@ -15077,11 +15135,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>3.38</v>
       </c>
@@ -15118,11 +15174,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>3.38</v>
       </c>
@@ -15159,11 +15213,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>3.38</v>
       </c>
@@ -15200,11 +15252,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>3.38</v>
       </c>
@@ -15241,11 +15291,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
         <v>3.38</v>
       </c>
@@ -15282,11 +15330,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>3.38</v>
       </c>
@@ -15323,11 +15369,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>3.38</v>
       </c>
@@ -15364,11 +15408,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>3.38</v>
       </c>
@@ -15405,11 +15447,9 @@
         <v>-4998594.1875</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>3.38</v>
       </c>
@@ -15733,11 +15773,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>3.38</v>
       </c>
@@ -15774,11 +15812,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
         <v>3.38</v>
       </c>
@@ -15815,11 +15851,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>3.38</v>
       </c>
@@ -15934,11 +15968,9 @@
         <v>-4998593.386</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>3.38</v>
       </c>
@@ -16716,11 +16748,9 @@
         <v>-5025349.6616</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>3.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
         <v>3.38</v>
       </c>
@@ -16796,11 +16826,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
         <v>3.38</v>
       </c>
@@ -16837,11 +16865,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
         <v>3.38</v>
       </c>
@@ -16878,11 +16904,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
         <v>3.38</v>
       </c>
@@ -16919,11 +16943,9 @@
         <v>-5572974.667400001</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
         <v>3.38</v>
       </c>
@@ -22569,7 +22591,7 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
@@ -22577,11 +22599,11 @@
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L554" t="n">
-        <v>1.024585798816568</v>
+        <v>1</v>
       </c>
       <c r="M554" t="inlineStr"/>
     </row>
@@ -22608,11 +22630,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -22641,11 +22669,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -22674,11 +22708,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -22707,11 +22747,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -22740,11 +22786,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -22773,11 +22825,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -22806,11 +22864,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -22839,11 +22903,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -22872,11 +22942,17 @@
         <v>69766789.86030747</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -22908,8 +22984,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -22941,8 +23023,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -22974,8 +23062,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -23007,8 +23101,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -23040,8 +23140,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -23073,8 +23179,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -23106,8 +23218,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -23139,8 +23257,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -23172,8 +23296,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -23205,8 +23335,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -23238,8 +23374,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -23271,8 +23413,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -23304,8 +23452,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -23337,8 +23491,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -23370,8 +23530,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -23403,8 +23569,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -23436,8 +23608,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -23469,8 +23647,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -23502,8 +23686,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -23535,8 +23725,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -23568,8 +23764,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -23601,8 +23803,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -23634,8 +23842,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -23667,8 +23881,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -23700,8 +23920,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -23733,8 +23959,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -23766,8 +23998,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -23799,8 +24037,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -23832,8 +24076,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -23865,8 +24115,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -23898,8 +24154,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -23931,8 +24193,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -23964,8 +24232,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -23997,8 +24271,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -24030,8 +24310,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -24063,8 +24349,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -24096,8 +24388,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -24129,8 +24427,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -24162,8 +24466,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -24195,8 +24505,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -24228,8 +24544,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -24261,8 +24583,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -24294,8 +24622,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -24327,8 +24661,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -24360,8 +24700,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -24393,8 +24739,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -24423,11 +24775,17 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -24456,11 +24814,17 @@
         <v>72810463.28530745</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -24492,8 +24856,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -24525,8 +24895,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -24558,8 +24934,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -24591,8 +24973,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -24621,11 +25009,17 @@
         <v>74075284.66400746</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -24657,8 +25051,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -24690,8 +25090,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -24723,8 +25129,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -24756,8 +25168,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -24786,11 +25204,17 @@
         <v>73341253.59260745</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -24819,11 +25243,17 @@
         <v>73375866.77050745</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -24852,11 +25282,17 @@
         <v>73132319.08500746</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -24885,11 +25321,17 @@
         <v>72512968.83830746</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -24918,11 +25360,17 @@
         <v>72737932.62470746</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -24951,11 +25399,17 @@
         <v>72750437.66450746</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -24984,11 +25438,17 @@
         <v>72653504.53110747</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -25017,11 +25477,17 @@
         <v>72323188.65360747</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -25050,11 +25516,17 @@
         <v>72600500.84650747</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -25083,11 +25555,17 @@
         <v>72870968.91920747</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -25116,11 +25594,17 @@
         <v>72533227.68350747</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -25149,11 +25633,17 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -25182,11 +25672,17 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -25215,11 +25711,17 @@
         <v>72703740.09670748</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -25248,11 +25750,17 @@
         <v>72352790.24010748</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -25281,11 +25789,17 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -25314,11 +25828,17 @@
         <v>72352940.24010748</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -25350,8 +25870,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -25383,8 +25909,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -25413,11 +25945,17 @@
         <v>72149001.75260746</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -25446,11 +25984,17 @@
         <v>72025100.29050747</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -25479,11 +26023,17 @@
         <v>72212228.55340746</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -25512,11 +26062,17 @@
         <v>72292923.10630746</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -25545,11 +26101,17 @@
         <v>72625377.32670747</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -25581,8 +26143,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -25614,8 +26182,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -25647,8 +26221,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -25680,8 +26260,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -25713,8 +26299,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -25746,8 +26338,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -25779,8 +26377,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -25812,8 +26416,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -25845,8 +26455,14 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -25878,8 +26494,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -25911,8 +26533,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -25944,8 +26572,14 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -25977,8 +26611,14 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -26010,8 +26650,14 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -26043,8 +26689,14 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -26076,8 +26728,14 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -26109,8 +26767,14 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -26142,8 +26806,14 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -26175,8 +26845,14 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -26208,8 +26884,14 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -26241,8 +26923,14 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -26274,8 +26962,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -26307,8 +27001,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -26340,8 +27040,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -26373,8 +27079,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -26406,8 +27118,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -26439,8 +27157,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -26472,8 +27196,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -26505,8 +27235,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -26538,8 +27274,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -26571,8 +27313,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -26604,8 +27352,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -26637,8 +27391,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -26670,8 +27430,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -26703,8 +27469,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -26736,8 +27508,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -26769,8 +27547,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -26802,8 +27586,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -26835,8 +27625,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -26868,8 +27664,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -26901,8 +27703,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -26934,8 +27742,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -26967,8 +27781,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -27000,8 +27820,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -27033,8 +27859,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -27066,8 +27898,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -27099,8 +27937,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -27132,8 +27976,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -27165,8 +28015,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -27198,8 +28054,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -27231,8 +28093,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -27264,8 +28132,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -27297,8 +28171,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -27330,8 +28210,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -27363,8 +28249,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -27396,8 +28288,14 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -27429,8 +28327,14 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -27462,8 +28366,14 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -27495,8 +28405,14 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -27528,8 +28444,14 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -27561,8 +28483,14 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -27594,8 +28522,14 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -27627,8 +28561,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -27660,8 +28600,14 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -27693,8 +28639,14 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -27726,8 +28678,14 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -27759,8 +28717,14 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -27792,8 +28756,14 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -27825,8 +28795,14 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -27858,8 +28834,14 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -27891,8 +28873,14 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -27924,8 +28912,14 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -27957,8 +28951,14 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27990,8 +28990,14 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -28023,8 +29029,14 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -28056,8 +29068,14 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -28089,8 +29107,14 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -28122,8 +29146,14 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -28155,8 +29185,14 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -28188,8 +29224,14 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -28221,8 +29263,14 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -28254,8 +29302,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -28287,8 +29341,14 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -28320,8 +29380,14 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -28353,8 +29419,14 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -28386,8 +29458,14 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -28419,8 +29497,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -28452,8 +29536,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -28485,8 +29575,14 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -28518,8 +29614,14 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -28551,8 +29653,14 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -28584,8 +29692,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -28617,8 +29731,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -28650,8 +29770,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -28683,8 +29809,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -28716,8 +29848,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -28749,8 +29887,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -28779,11 +29923,17 @@
         <v>72422711.96150744</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -28812,11 +29962,17 @@
         <v>72726440.89360744</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -28845,11 +30001,17 @@
         <v>72992354.10310744</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28878,11 +30040,17 @@
         <v>72669418.82110743</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28911,11 +30079,17 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28944,11 +30118,17 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28977,11 +30157,17 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -29010,11 +30196,17 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -29043,11 +30235,17 @@
         <v>73158541.12860744</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -29076,11 +30274,17 @@
         <v>73275533.98360744</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -29109,11 +30313,17 @@
         <v>73811219.89340743</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -29142,11 +30352,17 @@
         <v>73496733.84650743</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -29175,11 +30391,17 @@
         <v>73912062.01280743</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -29211,8 +30433,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -29244,8 +30472,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -29274,15 +30508,23 @@
         <v>74380365.05740742</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
+        <v>1.077840236686391</v>
+      </c>
+      <c r="M757" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -29307,7 +30549,7 @@
         <v>73884629.03800742</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -29340,7 +30582,7 @@
         <v>73884629.03800742</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -29373,7 +30615,7 @@
         <v>73529448.80530742</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -29406,7 +30648,7 @@
         <v>73576538.66720742</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -29505,7 +30747,7 @@
         <v>71243285.34990743</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -29571,7 +30813,7 @@
         <v>70916646.42900743</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29637,7 +30879,7 @@
         <v>70669332.10653912</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29736,7 +30978,7 @@
         <v>70490339.36193912</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29769,7 +31011,7 @@
         <v>69867275.46073912</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29802,7 +31044,7 @@
         <v>69763641.12183912</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -36666,7 +37908,7 @@
         <v>66364085.59836579</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -36699,7 +37941,7 @@
         <v>66107759.88661844</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -36732,7 +37974,7 @@
         <v>65914313.74551844</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -36765,7 +38007,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -36798,7 +38040,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -36831,7 +38073,7 @@
         <v>65847767.84837727</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -36864,7 +38106,7 @@
         <v>66759496.90758651</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36897,7 +38139,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -36930,7 +38172,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -36963,7 +38205,7 @@
         <v>66485536.93425635</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -36996,7 +38238,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -37029,7 +38271,7 @@
         <v>67307039.52502839</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -37062,7 +38304,7 @@
         <v>67667573.54362839</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -37095,7 +38337,7 @@
         <v>69476588.61813217</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -37128,7 +38370,7 @@
         <v>73975455.60760173</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -37161,7 +38403,7 @@
         <v>73310163.61240174</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -37194,7 +38436,7 @@
         <v>71504121.07670851</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -37227,7 +38469,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -37260,7 +38502,7 @@
         <v>71371166.35080852</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -37293,7 +38535,7 @@
         <v>71611290.82930851</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -37326,7 +38568,7 @@
         <v>71036639.7963085</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -37359,7 +38601,7 @@
         <v>72375585.56240851</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -37392,7 +38634,7 @@
         <v>72375585.56240851</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -37425,7 +38667,7 @@
         <v>72346781.44920851</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -37458,7 +38700,7 @@
         <v>72144496.32700852</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37491,7 +38733,7 @@
         <v>72144496.32700852</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -37524,7 +38766,7 @@
         <v>71776458.66770852</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -37557,7 +38799,7 @@
         <v>71776458.66770852</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -37590,7 +38832,7 @@
         <v>71142400.62200852</v>
       </c>
       <c r="H1009" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -37623,7 +38865,7 @@
         <v>71142400.62200852</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -37854,7 +39096,7 @@
         <v>71129943.10367833</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -37887,7 +39129,7 @@
         <v>71145124.50237833</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -37920,7 +39162,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -37953,7 +39195,7 @@
         <v>71064007.42027833</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -38118,7 +39360,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -38151,7 +39393,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -38184,7 +39426,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -38217,7 +39459,7 @@
         <v>71231645.83897832</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
